--- a/Service.Catalog/wwwroot/seed/04_CAT_INDICACIONES.xlsx
+++ b/Service.Catalog/wwwroot/seed/04_CAT_INDICACIONES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-71\source\repos\LaboratorioRamos\API\Service.Catalog\wwwroot\seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB0EA7F-A132-4E20-984F-D52E9BAC2B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E9C3E5-6049-416F-93A9-3ADEF16B6FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDICACIONES" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -906,19 +906,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -987,7 +974,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1014,9 +1001,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1377,7 +1361,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,7 +1736,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>57</v>
@@ -1763,7 +1747,7 @@
     </row>
     <row r="35" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>59</v>
@@ -1774,7 +1758,7 @@
     </row>
     <row r="36" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>61</v>
@@ -1785,7 +1769,7 @@
     </row>
     <row r="37" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>63</v>
@@ -1796,7 +1780,7 @@
     </row>
     <row r="38" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>65</v>
@@ -1807,7 +1791,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>67</v>
@@ -1818,7 +1802,7 @@
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>68</v>
@@ -1829,7 +1813,7 @@
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>70</v>
@@ -1840,7 +1824,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>72</v>
@@ -1851,7 +1835,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>74</v>
@@ -1862,7 +1846,7 @@
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>76</v>
@@ -1873,7 +1857,7 @@
     </row>
     <row r="45" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>78</v>
@@ -1884,7 +1868,7 @@
     </row>
     <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>80</v>
@@ -1895,7 +1879,7 @@
     </row>
     <row r="47" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>82</v>
@@ -1906,7 +1890,7 @@
     </row>
     <row r="48" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>84</v>
@@ -1917,7 +1901,7 @@
     </row>
     <row r="49" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>86</v>
@@ -1928,7 +1912,7 @@
     </row>
     <row r="50" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>88</v>
@@ -1939,7 +1923,7 @@
     </row>
     <row r="51" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>90</v>
@@ -1949,13 +1933,13 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <v>47</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="9" t="s">
         <v>93</v>
       </c>
     </row>

--- a/Service.Catalog/wwwroot/seed/04_CAT_INDICACIONES.xlsx
+++ b/Service.Catalog/wwwroot/seed/04_CAT_INDICACIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-71\source\repos\LaboratorioRamos\API\Service.Catalog\wwwroot\seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E9C3E5-6049-416F-93A9-3ADEF16B6FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED55716-E732-40E3-A140-B87029F55055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="INDICACIONES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDICACIONES!$B$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDICACIONES!$B$1:$B$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>PPD/COCCI</t>
   </si>
   <si>
     <t>No requiere ayuno</t>
-  </si>
-  <si>
-    <t>\N</t>
   </si>
   <si>
     <t>AYUNO 8</t>
@@ -430,6 +427,18 @@
   </si>
   <si>
     <t>Nombre</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PROTEGER DE LA LUZ</t>
+  </si>
+  <si>
+    <t>PATER</t>
+  </si>
+  <si>
+    <t>Deben presentarse ambos padres con identificaciones vigentes y el acta de nacimiento del niño. Previa cita de lunes a martes. De 20 a 30 días hábiles los resultados. Prueba únicamente informativa, no cuenta con validez legal.</t>
   </si>
 </sst>
 </file>
@@ -759,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -929,6 +938,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -974,34 +996,37 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1358,28 +1383,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,10 +1423,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1409,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1420,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,10 +1456,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1442,10 +1467,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1453,10 +1478,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -1464,10 +1489,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,10 +1500,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1486,10 +1511,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -1497,10 +1522,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -1508,10 +1533,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1519,10 +1544,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -1530,10 +1555,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1541,10 +1566,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="270" x14ac:dyDescent="0.25">
@@ -1552,10 +1577,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -1563,10 +1588,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="330" x14ac:dyDescent="0.25">
@@ -1574,10 +1599,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="360" x14ac:dyDescent="0.25">
@@ -1585,10 +1610,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="345" x14ac:dyDescent="0.25">
@@ -1596,10 +1621,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="225" x14ac:dyDescent="0.25">
@@ -1607,10 +1632,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="300" x14ac:dyDescent="0.25">
@@ -1618,10 +1643,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -1629,10 +1654,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1640,10 +1665,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -1651,10 +1676,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -1662,10 +1687,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -1673,10 +1698,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -1684,10 +1709,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -1695,10 +1720,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -1706,10 +1731,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -1717,10 +1742,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1728,10 +1753,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,10 +1764,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -1750,10 +1775,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -1761,10 +1786,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -1772,10 +1797,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="120" x14ac:dyDescent="0.25">
@@ -1783,10 +1808,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1794,21 +1819,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1816,10 +1839,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1827,10 +1850,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1838,10 +1861,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1849,10 +1872,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -1860,10 +1883,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1871,10 +1894,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="150" x14ac:dyDescent="0.25">
@@ -1882,10 +1905,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -1893,10 +1916,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="210" x14ac:dyDescent="0.25">
@@ -1904,10 +1927,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -1915,10 +1938,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="240" x14ac:dyDescent="0.25">
@@ -1926,21 +1949,43 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="390" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>93</v>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
